--- a/DE_XUAT_VAT_TU_NGHIEN_CUU_BO_DIEU_KHIEN_MAY_BAY.xlsx
+++ b/DE_XUAT_VAT_TU_NGHIEN_CUU_BO_DIEU_KHIEN_MAY_BAY.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="16935" yWindow="345" windowWidth="14805" windowHeight="7770"/>
+    <workbookView xWindow="17865" yWindow="345" windowWidth="14805" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="127">
   <si>
     <t>TẬP ĐOÀN VDI GROUP</t>
   </si>
@@ -111,12 +111,6 @@
     <t>&lt;10 ngày</t>
   </si>
   <si>
-    <t>IC Current INA219 sot23-8</t>
-  </si>
-  <si>
-    <t>https://www.alibaba.com/product-detail/INA219AIDCNR-INA219-A219-SOT23-8-Current_62322545012.html?spm=a2700.galleryofferlist.normal_offer.d_title.6d08609cffmNlo</t>
-  </si>
-  <si>
     <t>mạch in PCB V1</t>
   </si>
   <si>
@@ -162,12 +156,273 @@
   </si>
   <si>
     <t>Jump Đôi Cái 2.0MM 2x40P Thẳng</t>
+  </si>
+  <si>
+    <t>LED3528 RGB</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/led3528-rgb-5-chiec-p23555312.html</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/jump-doi-cai-2.0mm-2x40p-thang-p6649656.html</t>
+  </si>
+  <si>
+    <t>IRFR3708 TO252 MOSFET N-CH 61A 30V</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/irfr3708-to252-mosfet-nch-61a-30v-p6646550.html</t>
+  </si>
+  <si>
+    <t>Trở 0603 5% 0R</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/tro-0603-5-0r-50c-p12913905.html</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/tro-0603-5-1k-50c-p6650083.html</t>
+  </si>
+  <si>
+    <t>Trở 0603 5% 10K (50c)</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/tro-0603-5-10k-50c-p6650080.html</t>
+  </si>
+  <si>
+    <t>Trở 0603 5% 1K(50c)</t>
+  </si>
+  <si>
+    <t>Trở 0603 5% 4.7K(50c)</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/tro-0603-5-4.7k-50c-p6650090.html</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/tro-0603-5-100k-50c-p6650078.html</t>
+  </si>
+  <si>
+    <t>Trở 0603 5% 100K (50c)</t>
+  </si>
+  <si>
+    <t>Trở 0603 5% 2K (50c)</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/tro-0603-5-2k-50c-p6650087.html</t>
+  </si>
+  <si>
+    <t>Trở 2512 5% 0.1R 1W</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/tro-2512-5-0.1r-1w-5-chiec-p23584291.html</t>
+  </si>
+  <si>
+    <t>Nút Nhấn 4 Chân 6x6x8MM SMD (10 chiếc)</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/nut-nhan-4-chan-6x6x8mm-smd-10-chiec-p22290988.html</t>
+  </si>
+  <si>
+    <t>L9110S SOP8 Motor Driver</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/l9110s-sop8-motor-driver-p6648554.html</t>
+  </si>
+  <si>
+    <t>74HC595PW TSSOP16</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/74hc595pw-tssop16-p6653699.html</t>
+  </si>
+  <si>
+    <t>Jump Đôi Cái 2.54MM 2x40P Thẳng 11MM Mạ Vàng</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/jump-doi-cai-2.54mm-2x40p-thang-11mm-ma-vang-p22740391.html</t>
+  </si>
+  <si>
+    <t>Jump Đôi Đực 2.54MM 2x8P Thẳng</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/jump-doi-duc-2.54mm-2x8p-thang-p12912144.html</t>
+  </si>
+  <si>
+    <t>Jump Đôi Đực 2.54MM 2x40P Dán</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/jump-doi-duc-2.54mm-2x40p-dan-p6651739.html</t>
+  </si>
+  <si>
+    <t>Dây Trắng 2P PH2.0-2P 20CM</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/day-trang-2p-ph2.02p-20cm-p6652853.html</t>
+  </si>
+  <si>
+    <t>Dây Trắng 2P XH2.54-2P 30CM</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/day-trang-2p-xh2.542p-30cm-p6653746.html</t>
+  </si>
+  <si>
+    <t>Kìm Cắt Chân Linh Kiện Buddy BG0001</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/kim-cat-chan-linh-kien-buddy-bg0001-p15463768.html</t>
+  </si>
+  <si>
+    <t>Đầu Mũi Hàn 900M-T-IS</t>
+  </si>
+  <si>
+    <t>Đầu Mũi Hàn 900M-T-2C</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/dau-mui-han-900mt2c-p6648024.html</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/dau-mui-han-900mtis-p6648025.html</t>
+  </si>
+  <si>
+    <t>Đầu Mũi Hàn 900M-T-3C</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/dau-mui-han-900mt3c-p6650946.html</t>
+  </si>
+  <si>
+    <t>Nhựa Thông Hộp Nhỏ 15G</t>
+  </si>
+  <si>
+    <t>hộp</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/nhua-thong-hop-nho-15g-p6653109.html</t>
+  </si>
+  <si>
+    <t>Kẹp Cong Linh Kiện DKT PT-15</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/kep-cong-linh-kien-dkt-pt15-p6647930.html</t>
+  </si>
+  <si>
+    <t>Bọt Biển 6x6CM Dầy 5MM</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/bot-bien-6x6cm-day-5mm-p6653116.html</t>
+  </si>
+  <si>
+    <t>Gen Co Nhiệt Phi 1 Đen</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/gen-co-nhiet-phi-1-den-1-met-p6648055.html</t>
+  </si>
+  <si>
+    <t>Nút Nhấn 2 Chân 3x6x2.5MM SMD</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/nut-nhan-2-chan-3x6x2.5mm-smd-5-chiec-p23169743.html</t>
+  </si>
+  <si>
+    <t>Tụ Nhôm 4.7uF 25V 4x4.5MM (5 chiếc)</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/tu-nhom-4.7uf-25v-4x4.5mm-5-chiec-p23714969.html</t>
+  </si>
+  <si>
+    <t>Tụ Nhôm 100uF 25V 6x7MM</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/tu-nhom-100uf-25v-6x7mm-p6646132.html</t>
+  </si>
+  <si>
+    <t>Diode SS34 3A 40V SMA ( 1N5822 SS34A)</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/diode-ss34-3a-40v-sma-1n5822-ss34a-p6652165.html</t>
+  </si>
+  <si>
+    <t>AMS1117-3.3V SOT223</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/ams11173.3v-sot223-p6651251.html</t>
+  </si>
+  <si>
+    <t>XL1509-5.0 SOP8 DC-DC 2A 5V</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/xl15095.0-sop8-dcdc-2a-5v-p6648679.html</t>
+  </si>
+  <si>
+    <t>Nguồn Adapter AcBel 12V5A 5.5x2.1MM ADA017-5.5</t>
+  </si>
+  <si>
+    <t>ESP32-WROOM-32 ESP32 SoC Chính Hãng</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/esp32wroom32-esp32-soc-chinh-hang-p6860584.html</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/nguon-adapter-acbel-12v5a-5.5x2.1mm-ada0175.5-p12119014.html</t>
+  </si>
+  <si>
+    <t>NiBC-Powerline 4 Smart</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/sac-pin-nibcpowerline-4-smart-sac-pin-ansmann-p20233696.html</t>
+  </si>
+  <si>
+    <t>Công Tắc Bit 1P (1 Số) Màu Đỏ</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/cong-tac-bit-1p-1-so-mau-do-p6648221.html</t>
+  </si>
+  <si>
+    <t>Jump đực đôi 2.0mm 2x40P chân cong</t>
+  </si>
+  <si>
+    <t>https://linhkienchatluong.vn/jump-20mm/jump-duc-doi-20mm-2x40p-chan-cong_sp877_ct4119.aspx</t>
+  </si>
+  <si>
+    <t>Jump Đơn Đực 2.0MM 1x40P Loại Dài 15MM</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/jump-don-duc-2.0mm-1x40p-loai-dai-15mm-p6649665.html</t>
+  </si>
+  <si>
+    <t>Dây 40P 2.0 20CM (Không Header)</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/day-40p-2.0-20cm-khong-header-p6652858.html</t>
+  </si>
+  <si>
+    <t>Jump Đơn Cái 2.0MM 1x10P Thẳng</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/jump-don-cai-2.0mm-1x10p-thang-p12912145.html</t>
+  </si>
+  <si>
+    <t>Jump Đơn Cái 2.0MM 1x40P Thẳng</t>
+  </si>
+  <si>
+    <t>Jump Đôi Đực 2.0MM 2x40P Loại Dài 15MM</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/jump-doi-duc-2.0mm-2x40p-loai-dai-15mm-p6651738.html</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/search?q=Jump%20%C4%90%C6%A1n%20C%C3%A1i%202.0MM%201x40P%20Th%E1%BA%B3ng</t>
+  </si>
+  <si>
+    <t>Dây USB A-Micro 30CM AC-MM30</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/day-usb-amicro-30cm-acmm30-p6651853.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,7 +514,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +530,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,7 +586,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -365,9 +626,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -412,6 +670,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -761,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,62 +1053,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="B6" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
@@ -874,12 +1147,12 @@
         <v>1</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" s="10">
         <v>10</v>
@@ -894,7 +1167,7 @@
         <v>23</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -902,7 +1175,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -922,7 +1195,7 @@
         <v>23</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -930,7 +1203,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -950,7 +1223,7 @@
         <v>23</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -958,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -978,7 +1251,7 @@
         <v>23</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -986,7 +1259,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1006,7 +1279,7 @@
         <v>23</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1014,7 +1287,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1022,7 +1295,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="10">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>17</v>
@@ -1033,20 +1306,24 @@
       <c r="I13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>7</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="10">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>17</v>
@@ -1057,59 +1334,77 @@
       <c r="I14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="J14" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
         <v>8</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="19">
-        <v>50</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="10">
+        <v>10</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>9</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="10">
+        <v>5</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>10</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F17" s="10">
         <v>10</v>
@@ -1123,167 +1418,1301 @@
       <c r="I17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>11</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F18" s="10">
+        <v>10</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>12</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="10">
+        <v>5</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>13</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="10">
+        <v>5</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>14</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="10">
+        <v>5</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>15</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="10">
+        <v>30</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>16</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="10">
+        <v>3</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>17</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="10">
+        <v>30</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>18</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="10">
+        <v>20</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>19</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="10">
+        <v>3</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>20</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="10">
+        <v>10</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>21</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="10">
+        <v>3</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>22</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="10">
+        <v>20</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>23</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="10">
+        <v>5</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>24</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>25</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>26</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>27</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>28</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="10">
+        <v>2</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>29</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="10">
+        <v>2</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>30</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="10">
+        <v>2</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>31</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="10">
+        <v>5</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>32</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="10">
+        <v>10</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>33</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="10">
+        <v>10</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>34</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="10">
+        <v>5</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>35</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="10">
+        <v>6</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>36</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="10">
+        <v>5</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>37</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="10">
+        <v>5</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>38</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="10">
+        <v>1</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>39</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="10">
+        <v>2</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>40</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="10">
+        <v>1</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>41</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="10">
+        <v>5</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>42</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="10">
+        <v>2</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>43</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="10">
+        <v>1</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>44</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="10">
+        <v>2</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>45</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="10">
+        <v>2</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>46</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="10">
+        <v>2</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
+        <v>47</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="10">
+        <v>2</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
+        <v>48</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="18">
+        <v>5</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J55" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
+        <v>49</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="33">
+        <v>10</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56" s="36"/>
+    </row>
+    <row r="57" spans="1:10" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14">
         <v>50</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="32" t="s">
+      <c r="B57" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="33">
+        <v>50</v>
+      </c>
+      <c r="G57" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="36"/>
+    </row>
+    <row r="58" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+    </row>
+    <row r="59" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="24" t="s">
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="61" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B61" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24" t="s">
+      <c r="C61" s="23"/>
+      <c r="D61" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="24" t="s">
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="24" t="s">
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+    </row>
+    <row r="62" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="9"/>
+    </row>
+    <row r="67" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B67" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="24" t="s">
+      <c r="C67" s="23"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="C1:J1"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="G67:J67"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B58:J58"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J15" r:id="rId1"/>
-    <hyperlink ref="J10" r:id="rId2"/>
-    <hyperlink ref="J9" r:id="rId3"/>
-    <hyperlink ref="J8" r:id="rId4"/>
-    <hyperlink ref="J11" r:id="rId5"/>
-    <hyperlink ref="J12" r:id="rId6"/>
+    <hyperlink ref="J10" r:id="rId1"/>
+    <hyperlink ref="J9" r:id="rId2"/>
+    <hyperlink ref="J8" r:id="rId3"/>
+    <hyperlink ref="J11" r:id="rId4"/>
+    <hyperlink ref="J12" r:id="rId5"/>
+    <hyperlink ref="J14" r:id="rId6"/>
+    <hyperlink ref="J13" r:id="rId7"/>
+    <hyperlink ref="J15" r:id="rId8"/>
+    <hyperlink ref="J16" r:id="rId9"/>
+    <hyperlink ref="J17" r:id="rId10"/>
+    <hyperlink ref="J18" r:id="rId11"/>
+    <hyperlink ref="J19" r:id="rId12"/>
+    <hyperlink ref="J20" r:id="rId13"/>
+    <hyperlink ref="J21" r:id="rId14"/>
+    <hyperlink ref="J22" r:id="rId15"/>
+    <hyperlink ref="J23" r:id="rId16"/>
+    <hyperlink ref="J24" r:id="rId17"/>
+    <hyperlink ref="J25" r:id="rId18"/>
+    <hyperlink ref="J26" r:id="rId19"/>
+    <hyperlink ref="J27" r:id="rId20"/>
+    <hyperlink ref="J28" r:id="rId21"/>
+    <hyperlink ref="J29" r:id="rId22"/>
+    <hyperlink ref="J30" r:id="rId23"/>
+    <hyperlink ref="J31" r:id="rId24"/>
+    <hyperlink ref="J33" r:id="rId25"/>
+    <hyperlink ref="J32" r:id="rId26"/>
+    <hyperlink ref="J34" r:id="rId27"/>
+    <hyperlink ref="J35" r:id="rId28"/>
+    <hyperlink ref="J36" r:id="rId29"/>
+    <hyperlink ref="J37" r:id="rId30"/>
+    <hyperlink ref="J38" r:id="rId31"/>
+    <hyperlink ref="J39" r:id="rId32"/>
+    <hyperlink ref="J40" r:id="rId33"/>
+    <hyperlink ref="J41" r:id="rId34"/>
+    <hyperlink ref="J42" r:id="rId35"/>
+    <hyperlink ref="J43" r:id="rId36"/>
+    <hyperlink ref="J44" r:id="rId37"/>
+    <hyperlink ref="J46" r:id="rId38"/>
+    <hyperlink ref="J45" r:id="rId39"/>
+    <hyperlink ref="J47" r:id="rId40"/>
+    <hyperlink ref="J48" r:id="rId41"/>
+    <hyperlink ref="J55" r:id="rId42"/>
+    <hyperlink ref="J49" r:id="rId43"/>
+    <hyperlink ref="J50" r:id="rId44"/>
+    <hyperlink ref="J51" r:id="rId45"/>
+    <hyperlink ref="J53" r:id="rId46"/>
+    <hyperlink ref="J52" r:id="rId47"/>
+    <hyperlink ref="J54" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId7"/>
-  <drawing r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId49"/>
+  <drawing r:id="rId50"/>
 </worksheet>
 </file>